--- a/tests/db_files/db_sheetname.xlsx
+++ b/tests/db_files/db_sheetname.xlsx
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
